--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/raghavakrishna_devineni_bwedu_de/Documents/5_PythonFiles/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/raghavakrishna_devineni_bwedu_de/Documents/5_PythonFiles/RandS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC1048CD91DD5C365BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{961D80A1-17BA-432C-B55B-649F06C08A3C}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_F25DC773A252ABDACC1048CD91DD5C365BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{187F2068-5913-4367-ACE9-40B5C9A48873}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>S Ie0 Herdern</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>dotV4</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -480,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,7 +497,7 @@
     <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -540,8 +543,11 @@
       <c r="O1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -559,8 +565,15 @@
       <c r="O2">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>_xlfn.CONCAT(P2, ") ",A2)</f>
+        <v>1) S Ie0 Herdern</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -578,8 +591,15 @@
       <c r="O3">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q21" si="0">_xlfn.CONCAT(P3, ") ",A3)</f>
+        <v>2) S Ie1 Herdern</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -597,8 +617,15 @@
       <c r="O4">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="0"/>
+        <v>3) S H e0 Herdern</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -616,8 +643,15 @@
       <c r="O5">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="0"/>
+        <v>4) S H e1 Herdern</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -659,8 +693,15 @@
       <c r="O6">
         <v>47.074942781905598</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="0"/>
+        <v>5) W Ie0 Herdern</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -678,8 +719,15 @@
       <c r="O7">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="0"/>
+        <v>6) W Ie1 Herdern</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -697,8 +745,15 @@
       <c r="O8">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="0"/>
+        <v>7) W H e0 Herdern</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -716,8 +771,15 @@
       <c r="O9">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="0"/>
+        <v>8) W H e1 Herdern</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -735,8 +797,15 @@
       <c r="O10">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P10">
+        <v>9</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="0"/>
+        <v>9) S Ie0 ESHL</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -754,8 +823,15 @@
       <c r="O11">
         <v>128</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="0"/>
+        <v>10) S Ie1 ESHL</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -773,8 +849,15 @@
       <c r="O12">
         <v>361</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P12">
+        <v>11</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="0"/>
+        <v>11) S IKT on ESHL</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -792,8 +875,15 @@
       <c r="O13">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P13">
+        <v>12</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="0"/>
+        <v>12) S H e0 ESHL</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -811,8 +901,15 @@
       <c r="O14">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P14">
+        <v>13</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="0"/>
+        <v>13) S H e1 ESHL</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -830,8 +927,15 @@
       <c r="O15">
         <v>301</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P15">
+        <v>14</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="0"/>
+        <v>14) S H KT on ESHL</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -881,8 +985,15 @@
       <c r="O16">
         <v>87.29476925642507</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P16">
+        <v>15</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="0"/>
+        <v>15) W Ie0 ESHL</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -892,8 +1003,15 @@
       <c r="O17">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P17">
+        <v>16</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="0"/>
+        <v>16) W Ie1 ESHL</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -903,8 +1021,15 @@
       <c r="O18">
         <v>361</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P18">
+        <v>17</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="0"/>
+        <v>17) W IKT on ESHL</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -914,8 +1039,15 @@
       <c r="O19">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P19">
+        <v>18</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="0"/>
+        <v>18) W H e0 ESHL</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -925,8 +1057,15 @@
       <c r="O20">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P20">
+        <v>19</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="0"/>
+        <v>19) W H e1 ESHL</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -935,6 +1074,13 @@
       </c>
       <c r="O21">
         <v>301</v>
+      </c>
+      <c r="P21">
+        <v>20</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="0"/>
+        <v>20) W H KT on ES</v>
       </c>
     </row>
   </sheetData>

--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/raghavakrishna_devineni_bwedu_de/Documents/5_PythonFiles/RandS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_F25DC773A252ABDACC1048CD91DD5C365BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{187F2068-5913-4367-ACE9-40B5C9A48873}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC1048CD91DD5C365BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5B0D26B-75B2-4AC2-BFDC-8CC9762609DA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>S Ie0 Herdern</t>
   </si>
@@ -93,9 +93,6 @@
     <t>W H e1 ESHL</t>
   </si>
   <si>
-    <t>W H KT on ES</t>
-  </si>
-  <si>
     <t>experiment</t>
   </si>
   <si>
@@ -142,6 +139,21 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Herdern</t>
+  </si>
+  <si>
+    <t>ESHL</t>
+  </si>
+  <si>
+    <t>W H KT on ESHL</t>
   </si>
 </sst>
 </file>
@@ -483,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,59 +507,66 @@
     <col min="2" max="2" width="20.7265625" customWidth="1"/>
     <col min="3" max="5" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -572,8 +591,11 @@
         <f>_xlfn.CONCAT(P2, ") ",A2)</f>
         <v>1) S Ie0 Herdern</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -598,8 +620,11 @@
         <f t="shared" ref="Q3:Q21" si="0">_xlfn.CONCAT(P3, ") ",A3)</f>
         <v>2) S Ie1 Herdern</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -624,8 +649,11 @@
         <f t="shared" si="0"/>
         <v>3) S H e0 Herdern</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -650,8 +678,11 @@
         <f t="shared" si="0"/>
         <v>4) S H e1 Herdern</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -700,8 +731,11 @@
         <f t="shared" si="0"/>
         <v>5) W Ie0 Herdern</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -726,8 +760,11 @@
         <f t="shared" si="0"/>
         <v>6) W Ie1 Herdern</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -752,8 +789,11 @@
         <f t="shared" si="0"/>
         <v>7) W H e0 Herdern</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -778,8 +818,11 @@
         <f t="shared" si="0"/>
         <v>8) W H e1 Herdern</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -804,8 +847,11 @@
         <f t="shared" si="0"/>
         <v>9) S Ie0 ESHL</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -830,8 +876,11 @@
         <f t="shared" si="0"/>
         <v>10) S Ie1 ESHL</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -856,8 +905,11 @@
         <f t="shared" si="0"/>
         <v>11) S IKT on ESHL</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -882,8 +934,11 @@
         <f t="shared" si="0"/>
         <v>12) S H e0 ESHL</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -908,8 +963,11 @@
         <f t="shared" si="0"/>
         <v>13) S H e1 ESHL</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -934,8 +992,11 @@
         <f t="shared" si="0"/>
         <v>14) S H KT on ESHL</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -992,8 +1053,11 @@
         <f t="shared" si="0"/>
         <v>15) W Ie0 ESHL</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1010,8 +1074,11 @@
         <f t="shared" si="0"/>
         <v>16) W Ie1 ESHL</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1028,8 +1095,11 @@
         <f t="shared" si="0"/>
         <v>17) W IKT on ESHL</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1046,8 +1116,11 @@
         <f t="shared" si="0"/>
         <v>18) W H e0 ESHL</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1064,10 +1137,13 @@
         <f t="shared" si="0"/>
         <v>19) W H e1 ESHL</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2">
         <v>0.69</v>
@@ -1080,7 +1156,10 @@
       </c>
       <c r="Q21" t="str">
         <f t="shared" si="0"/>
-        <v>20) W H KT on ES</v>
+        <v>20) W H KT on ESHL</v>
+      </c>
+      <c r="R21" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
